--- a/notes/conditions2.xlsx
+++ b/notes/conditions2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{668F27A7-AED6-204E-985D-70E21EE47EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E551EF4B-8B08-B64E-A046-AC27173E3AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36180" yWindow="2540" windowWidth="27640" windowHeight="16940" xr2:uid="{39AC0861-80B2-364D-8924-FC55FC75EA32}"/>
+    <workbookView xWindow="380" yWindow="680" windowWidth="16800" windowHeight="18580" xr2:uid="{39AC0861-80B2-364D-8924-FC55FC75EA32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="experiment 1" sheetId="1" r:id="rId1"/>
+    <sheet name="experiment 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,6 +35,179 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="56">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Letters</t>
+  </si>
+  <si>
+    <t>QUDxLetters</t>
+  </si>
+  <si>
+    <t>QUD</t>
+  </si>
+  <si>
+    <t>Conjunction</t>
+  </si>
+  <si>
+    <t>AnswerConj1</t>
+  </si>
+  <si>
+    <t>AnswerConj2</t>
+  </si>
+  <si>
+    <t>QUDxConj1</t>
+  </si>
+  <si>
+    <t>TrialType</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>Is there a A or a B?</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>There is an A and</t>
+  </si>
+  <si>
+    <t>there is no X.</t>
+  </si>
+  <si>
+    <t>rel_ir</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Is there an A or a B?</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>There is an A but</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>Is there an A or an X?</t>
+  </si>
+  <si>
+    <t>rel_rel</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>Is there an X or an A?</t>
+  </si>
+  <si>
+    <t>There is no X and</t>
+  </si>
+  <si>
+    <t>there is an A.</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>There is no X but</t>
+  </si>
+  <si>
+    <t>there is a B.</t>
+  </si>
+  <si>
+    <t>compar</t>
+  </si>
+  <si>
+    <t>connective</t>
+  </si>
+  <si>
+    <t>negation</t>
+  </si>
+  <si>
+    <t>qud</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>first conj relevant</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>letters</t>
+  </si>
+  <si>
+    <t>there is no X</t>
+  </si>
+  <si>
+    <t>there is a B</t>
+  </si>
+  <si>
+    <t>there is no Q</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; only for specific QUD condition</t>
+  </si>
+  <si>
+    <t>there is … and</t>
+  </si>
+  <si>
+    <t>there is no … and</t>
+  </si>
+  <si>
+    <t>there is no … but</t>
+  </si>
+  <si>
+    <t>there is … but</t>
+  </si>
+  <si>
+    <t>What letters are there?</t>
+  </si>
+  <si>
+    <t>MAIN MANIP &gt;&gt;&gt; 12</t>
+  </si>
+  <si>
+    <t>SUB MANIP &gt;&gt;&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also need </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -45,18 +219,141 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9A8BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -65,8 +362,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,9 +699,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66421A73-1F21-2E4A-9A6B-7FEC6A395E4B}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8754294E-8D9A-C84F-88CA-14E237DBAA2C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
